--- a/2016년 재료비 8월/주산과암산 교재비.xlsx
+++ b/2016년 재료비 8월/주산과암산 교재비.xlsx
@@ -507,7 +507,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
@@ -761,7 +761,10 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="5"/>
+      <c r="F12" s="5">
+        <f>SUM(F2:F11)</f>
+        <v>65000</v>
+      </c>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:8">

--- a/2016년 재료비 8월/주산과암산 교재비.xlsx
+++ b/2016년 재료비 8월/주산과암산 교재비.xlsx
@@ -507,18 +507,18 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="7" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="7" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="16.625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="10.125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="7" customWidth="1"/>
+    <col min="4" max="4" width="11.25" style="7" customWidth="1"/>
+    <col min="5" max="5" width="13.25" style="7" customWidth="1"/>
+    <col min="6" max="6" width="15" style="7" customWidth="1"/>
+    <col min="7" max="7" width="17.5" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
